--- a/4/4.xlsx
+++ b/4/4.xlsx
@@ -164,25 +164,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17299999999999999</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19575000000000001</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21249999999999999</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25900000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29430000000000001</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33069999999999999</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -197,11 +197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1094684016"/>
-        <c:axId val="1223216160"/>
+        <c:axId val="-1615434256"/>
+        <c:axId val="-1615440240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1094684016"/>
+        <c:axId val="-1615434256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -211,12 +211,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1223216160"/>
+        <c:crossAx val="-1615440240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1223216160"/>
+        <c:axId val="-1615440240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -227,7 +227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1094684016"/>
+        <c:crossAx val="-1615434256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -326,25 +326,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.165</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.74</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.33</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1525000000000001</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94569999999999999</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97350000000000003</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74529999999999996</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,11 +359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1223210176"/>
-        <c:axId val="1223204736"/>
+        <c:axId val="-1615437520"/>
+        <c:axId val="-1615439696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1223210176"/>
+        <c:axId val="-1615437520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,12 +373,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1223204736"/>
+        <c:crossAx val="-1615439696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1223204736"/>
+        <c:axId val="-1615439696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1223210176"/>
+        <c:crossAx val="-1615437520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -488,25 +488,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>68.300000000000011</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.800000000000011</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.499999999999986</c:v>
+                  <c:v>55.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.999999999999993</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.669999999999998</c:v>
+                  <c:v>37.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.750000000000004</c:v>
+                  <c:v>33.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.45000000000001</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,11 +521,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1223209632"/>
-        <c:axId val="1223211264"/>
+        <c:axId val="-1615439152"/>
+        <c:axId val="-1615438608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1223209632"/>
+        <c:axId val="-1615439152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,12 +535,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1223211264"/>
+        <c:crossAx val="-1615438608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1223211264"/>
+        <c:axId val="-1615438608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,7 +551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1223209632"/>
+        <c:crossAx val="-1615439152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -643,10 +643,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.26250000000000001</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25369999999999998</c:v>
+                  <c:v>0.20930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.24</c:v>
@@ -676,11 +676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1278302448"/>
-        <c:axId val="1278302992"/>
+        <c:axId val="-1615436432"/>
+        <c:axId val="-1615432624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1278302448"/>
+        <c:axId val="-1615436432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,12 +690,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1278302992"/>
+        <c:crossAx val="-1615432624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1278302992"/>
+        <c:axId val="-1615432624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1278302448"/>
+        <c:crossAx val="-1615436432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -805,7 +805,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.8120000000000001</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.712</c:v>
@@ -838,11 +838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1278306800"/>
-        <c:axId val="1278304080"/>
+        <c:axId val="-1615443504"/>
+        <c:axId val="-1615438064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1278306800"/>
+        <c:axId val="-1615443504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,12 +852,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1278304080"/>
+        <c:crossAx val="-1615438064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1278304080"/>
+        <c:axId val="-1615438064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1278306800"/>
+        <c:crossAx val="-1615443504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -967,10 +967,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>49.66</c:v>
+                  <c:v>57.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.890000000000008</c:v>
+                  <c:v>49.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44.399999999999991</c:v>
@@ -1000,11 +1000,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1278300272"/>
-        <c:axId val="1278305712"/>
+        <c:axId val="-1615433168"/>
+        <c:axId val="-1615442416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1278300272"/>
+        <c:axId val="-1615433168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,12 +1014,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1278305712"/>
+        <c:crossAx val="-1615442416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1278305712"/>
+        <c:axId val="-1615442416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1278300272"/>
+        <c:crossAx val="-1615433168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,21 +1578,21 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.6830000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="C2">
         <f>$B$10*1.75</f>
         <v>6.5625</v>
       </c>
       <c r="D2">
-        <v>0.16500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="E2">
-        <v>2.165</v>
+        <v>2.9</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F8" si="0">(B2-P2)/P2*100</f>
-        <v>68.300000000000011</v>
+        <v>70</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1602,17 +1602,17 @@
         <v>0.17500000000000002</v>
       </c>
       <c r="R2">
-        <v>1.4965999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="S2">
-        <v>0.26250000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="T2">
-        <v>1.8120000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U8" si="1">(R2-P2)/P2*100</f>
-        <v>49.66</v>
+        <v>57.000000000000007</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1623,21 +1623,21 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.5980000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="C3">
         <f>$B$10*1.5</f>
         <v>5.625</v>
       </c>
       <c r="D3">
-        <v>0.17299999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E3">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>59.800000000000011</v>
+        <v>62.5</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1647,17 +1647,17 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="R3">
-        <v>1.4789000000000001</v>
+        <v>1.4921</v>
       </c>
       <c r="S3">
-        <v>0.25369999999999998</v>
+        <v>0.20930000000000001</v>
       </c>
       <c r="T3">
         <v>1.712</v>
       </c>
       <c r="U3">
         <f t="shared" si="1"/>
-        <v>47.890000000000008</v>
+        <v>49.21</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1668,21 +1668,21 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1.5049999999999999</v>
+        <v>1.556</v>
       </c>
       <c r="C4">
         <f>$B$10*1.25</f>
         <v>4.6875</v>
       </c>
       <c r="D4">
-        <v>0.19575000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E4">
-        <v>1.33</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>50.499999999999986</v>
+        <v>55.600000000000009</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1713,21 +1713,21 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="C5">
         <f>$B$10*1</f>
         <v>3.75</v>
       </c>
       <c r="D5">
-        <v>0.21249999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="E5">
-        <v>1.1525000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>39.999999999999993</v>
+        <v>47</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1758,21 +1758,21 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1.3067</v>
+        <v>1.38</v>
       </c>
       <c r="C6">
         <f>$B$10/1.25</f>
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0.25900000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>0.94569999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>30.669999999999998</v>
+        <v>37.999999999999986</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1803,21 +1803,21 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.2375</v>
+        <v>1.33</v>
       </c>
       <c r="C7">
         <f>$B$10/1.5</f>
         <v>2.5</v>
       </c>
       <c r="D7">
-        <v>0.29430000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="E7">
-        <v>0.97350000000000003</v>
+        <v>1.55</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>23.750000000000004</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1848,21 +1848,21 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1.1845000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="C8">
         <f>$B$10/1.75</f>
         <v>2.1428571428571428</v>
       </c>
       <c r="D8">
-        <v>0.33069999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="E8">
-        <v>0.74529999999999996</v>
+        <v>0.35</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>18.45000000000001</v>
+        <v>27</v>
       </c>
       <c r="P8">
         <v>1</v>

--- a/4/4.xlsx
+++ b/4/4.xlsx
@@ -164,10 +164,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0.1239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.1343</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.15</c:v>
@@ -197,11 +197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1615434256"/>
-        <c:axId val="-1615440240"/>
+        <c:axId val="2105812704"/>
+        <c:axId val="2105818144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1615434256"/>
+        <c:axId val="2105812704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -211,12 +211,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615440240"/>
+        <c:crossAx val="2105818144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1615440240"/>
+        <c:axId val="2105818144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -227,7 +227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615434256"/>
+        <c:crossAx val="2105812704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -326,10 +326,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.9</c:v>
+                  <c:v>2.9990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7</c:v>
+                  <c:v>2.2679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2000000000000002</c:v>
@@ -359,11 +359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1615437520"/>
-        <c:axId val="-1615439696"/>
+        <c:axId val="2105813248"/>
+        <c:axId val="2105819776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1615437520"/>
+        <c:axId val="2105813248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,12 +373,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615439696"/>
+        <c:crossAx val="2105819776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1615439696"/>
+        <c:axId val="2105819776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615437520"/>
+        <c:crossAx val="2105813248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -488,10 +488,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>69.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.5</c:v>
+                  <c:v>62.97999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>55.600000000000009</c:v>
@@ -521,11 +521,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1615439152"/>
-        <c:axId val="-1615438608"/>
+        <c:axId val="2105816512"/>
+        <c:axId val="2105814880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1615439152"/>
+        <c:axId val="2105816512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,12 +535,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615438608"/>
+        <c:crossAx val="2105814880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1615438608"/>
+        <c:axId val="2105814880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,7 +551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615439152"/>
+        <c:crossAx val="2105816512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -676,11 +676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1615436432"/>
-        <c:axId val="-1615432624"/>
+        <c:axId val="2105815968"/>
+        <c:axId val="1925152336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1615436432"/>
+        <c:axId val="2105815968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,12 +690,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615432624"/>
+        <c:crossAx val="1925152336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1615432624"/>
+        <c:axId val="1925152336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615436432"/>
+        <c:crossAx val="2105815968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -838,11 +838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1615443504"/>
-        <c:axId val="-1615438064"/>
+        <c:axId val="2108445088"/>
+        <c:axId val="2108446176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1615443504"/>
+        <c:axId val="2108445088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,12 +852,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615438064"/>
+        <c:crossAx val="2108446176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1615438064"/>
+        <c:axId val="2108446176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615443504"/>
+        <c:crossAx val="2108445088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1000,11 +1000,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1615433168"/>
-        <c:axId val="-1615442416"/>
+        <c:axId val="2108444000"/>
+        <c:axId val="2108445632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1615433168"/>
+        <c:axId val="2108444000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,12 +1014,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615442416"/>
+        <c:crossAx val="2108445632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1615442416"/>
+        <c:axId val="2108445632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1615433168"/>
+        <c:crossAx val="2108444000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,21 +1578,21 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.7</v>
+        <v>1.6955</v>
       </c>
       <c r="C2">
         <f>$B$10*1.75</f>
         <v>6.5625</v>
       </c>
       <c r="D2">
-        <v>0.125</v>
+        <v>0.1239</v>
       </c>
       <c r="E2">
-        <v>2.9</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F8" si="0">(B2-P2)/P2*100</f>
-        <v>70</v>
+        <v>69.55</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1623,21 +1623,21 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.625</v>
+        <v>1.6297999999999999</v>
       </c>
       <c r="C3">
         <f>$B$10*1.5</f>
         <v>5.625</v>
       </c>
       <c r="D3">
-        <v>0.14000000000000001</v>
+        <v>0.1343</v>
       </c>
       <c r="E3">
-        <v>2.7</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>62.97999999999999</v>
       </c>
       <c r="P3">
         <v>1</v>
